--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/20_Burdur_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/20_Burdur_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23C7BB21-49E9-43B9-97AF-608A582EE0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACFC9964-ADAF-42D1-ABF0-5AFAB5620D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77DDA3C4-9086-4E60-A0C5-DC574B8842CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AD21BC5-D09E-445D-89E2-8402E12BAF0F}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{273F1797-8C16-4E46-98E9-82DEEFFDA6F4}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{B5887F99-2D77-4428-A50F-C8C841ABDA37}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{D53BE468-3206-41E0-A8FD-7FF2799FFAA6}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{19C3EE2E-2A1F-4C43-8416-256C19061981}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{30AC0769-AFCA-4E37-B40A-78CECFB16925}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{65EFB5DB-802E-4AB0-999E-7E8321A5A722}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{CC530771-CBF8-4C8F-92C3-0A3D11044A09}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{944688E7-B89F-45FE-8586-2329E8773A69}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530D0041-389D-4B25-92E9-83EB029F7DE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13B714D-1BD0-4D78-9E6C-351B265229DB}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2443,18 +2443,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0F774FB0-5777-4364-9A75-80731BA1993A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{36394D95-0D66-4456-828A-D6BD17787316}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{713EE456-4BA9-4F19-852D-80184FC6D154}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{107BC8AE-741B-4761-B001-0A75CA72E66E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1C52A79A-C4E6-489E-AFA6-B17CBB6E86F0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6D487090-D224-43EF-B316-873201CD5E6E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{10905B26-9A85-480F-A5AE-D25D2D1DA6BC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7D0C762A-E3FA-4C8A-BB4D-6EAC9BAA7047}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E00D21AE-67F3-49C3-93FB-17E171E20A5A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D746A8DE-5E09-4ADE-8660-82E8201A9B62}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{157435E8-CE78-4679-95FA-203A74F40843}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B1866850-1496-4F7B-BC7F-125407BD49F4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D29CBD16-9329-43A4-B55F-922FB1632290}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{24779A5F-AE4A-4E5E-9C97-54A862909C93}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FBF5335A-59D5-4B1B-BBF3-98870AD0B662}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BFFD77BC-95A8-4AA3-8B85-01A855A99AA8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{248717DD-A42F-4FE4-8895-5C706F7A00DC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1543ABF8-52F4-4A77-B546-FFC6475880BE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7CD8EDCC-FC67-40E5-9D26-DF5B21A6EA4D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{91CBEB2D-1B7E-4CE2-99C6-3CC9D4DA5F26}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3625340E-8B13-4104-888C-D9D6E827AAC9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4E14AE8E-140B-4D0B-9AAE-4D2D4BCB5370}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C3ED7556-4828-40A3-BFBA-543015953426}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{632BF710-162A-4ADD-BFE2-DA808047FAF4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2467,7 +2467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414A4109-48D1-4429-BD87-054A159F9199}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66635578-51C4-4BE6-9E61-22127CF25BF0}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3654,18 +3654,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AF9AA414-8485-47DE-BFFC-5EFA84681EF4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B3AA07CC-5C18-421B-A800-C708EDD64669}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2B5B2ED6-E693-4767-9473-D34516B0384E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FB852691-9905-4E6C-A6F6-837C7D8BF2D8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{11F30C1A-BA4F-4C41-8B6C-6BF5E3AF07FA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{65EA3ECE-8BFF-454D-8EDE-D08036D5873C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{82DBD6CA-68C6-41A5-924D-E22D119B8792}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4669743B-DCA1-4297-A2CD-018C1DB77205}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C512AEF6-0AC8-4574-B066-A3739ED0851B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{45284788-760B-4099-A62F-5242D1E92EBF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2A6C0ACF-291A-451D-A148-5C84DFC62DB5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F7D8AA0A-A6CD-42E2-B6A5-C469C7F7C152}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0ACA72F5-DF02-4523-B75F-A42CDDBCB5C7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0EDC73CB-1AB0-49AC-8CE2-7FFCED7F3F9C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BA410085-3688-4051-AE9D-B924054C2949}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D642C9BC-35E1-4AE7-A9DD-E468FE1879C4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7DCA2D7B-D81D-4F0B-8DBC-00E898BE5038}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A6503F1B-85EB-4175-B9F8-91DD6AD7B861}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4AD7BEB0-6A96-459E-8083-5B4539452FCB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B5802453-6C5E-42C1-B65B-902645A689F4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{619D7099-BF21-4531-AD23-6A38091B4D57}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CFEB6446-D122-43B4-8BBA-CEA3A1B66CB3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6BE45AFF-9DBC-45A2-9E85-CB3541A7077A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3E51F0D9-4867-4A55-877D-594ACDCD87E2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3678,7 +3678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069508A9-1541-4AFB-8E29-DC4AF6442F56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27BDDAD-8CAD-4889-BF65-0A9B82D5B176}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4857,18 +4857,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3A5D48CA-E8D4-4107-A52E-852DD161D73C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8024C0A2-7E9F-4191-B4AB-F295C384E142}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F7DD0B57-E705-4FF6-8A0B-DFA802F016EE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BA360854-992A-40A9-9B38-6BFAA8902CF1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BB291FEE-52F6-4B77-903A-81C2361474C0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D9BD703C-16CE-40C3-99E9-8A3AA1C84B66}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{22D98873-1E65-4F51-BE00-CAECE73D713B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B5AC3E2C-B741-4FF5-BE17-EFF5B6792296}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BA1FDD04-C1AD-40E8-AAF4-625E1C03C736}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0E71CB18-B299-4F62-93EF-6BEBD563BF4F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3D23F2B1-6559-4F0F-A37C-0021EF36DFEC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7A12DA3A-4F58-45A8-9E54-488A156A4499}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D28C7B13-4334-42F6-B06A-ECC14F49334E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{02A4029A-0590-4701-918D-81A5DA39CF77}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{92474B82-E4AB-4B3F-B977-45A3033AF956}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{384DB2F1-6AB3-41AF-A726-DB00362B9D50}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{08ACBC7C-B67D-4740-BDF0-110924652A46}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A552BBC6-71A7-4762-A31E-AB0840E59541}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{467D42A9-5C64-4D7C-9502-A3EBD18BBB4D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E8C54356-BFBE-4570-8FDB-3A2AA1CC93AE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BDECF53A-CB00-4D45-A6FE-DABEC3A72697}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6D918927-866D-4431-98F2-B9605B4D5A03}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3A182434-1382-43FB-B81C-E8EE62FE9A86}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6015164F-C7DB-49E0-9072-48FECAB5AA0F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4881,7 +4881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C5823F-6978-496D-9CC9-56F1D9A0C366}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88924F0C-E0D8-4DC4-A0DF-FF5F80F5E3EB}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6058,18 +6058,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B0ABEA68-0596-4D45-9207-C29003D46282}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C50D9743-F905-46E8-B5AA-B791319AEFB9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{789B6B0A-212E-494A-8B30-BBD86916E25C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{72928CE6-511E-4B7E-AEC4-63FAAA0D6B79}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D90C0E25-9969-4B09-9CF2-1F2B560C356F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{782B2BD2-5767-4989-890F-EA03F604B227}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4B7D1242-D15B-4C02-AA6A-0AECE8C05834}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B83E3747-AE2B-46B5-999D-53F46FCCB4E5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{234AF178-4C9F-438D-91E6-EB7266D41EC5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A12A9300-AEFF-4721-BA26-4E5B27C52748}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3BB89D7D-E4BC-4107-96E5-8147ABD8F4C9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8049BF7F-4FDC-4CDC-8E86-D885395C9BF6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0573A329-7533-476E-BEBC-1EAE25119932}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4ACA4A1B-90F2-4F3D-9428-B110BC5AEE8E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{893A7A68-DB8C-4F8B-950F-FDCCFDA06AE4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5240EB83-3493-4B9C-966C-9B49C7CC444A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2BFBF82C-774B-4B2E-9340-6F3F3923E2F5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{96CDF916-E867-485A-AC99-C9DD3657C2A6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{819B4C44-1FF9-4E75-97DB-8FF2AFE74C9B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{142AAF08-D9DA-451E-B253-B9385CBB1966}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CBF32E6E-E106-4CC8-AA3D-181704D91A3E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{55B62FF4-3966-42BE-8FFB-A185D7F6957B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F62D5190-32E3-4515-BBDE-554EA4341571}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C5AC0BFB-39B2-4699-A6DB-CFA870166975}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6082,7 +6082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2E325C-032A-4CA9-A38B-DC0667FC5C30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4DC3C6-A76B-4CA9-AB23-9102E64A66C4}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7291,18 +7291,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EA954865-C9CE-4111-8244-710DB82BECBC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9D629D7C-67FF-4F12-95C9-2FA611D8521F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DCDAC5C7-BAC3-4098-A9F2-7096EC33073D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8A694D2C-BD50-498E-AD7C-8E8053312F73}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{352EA9F3-868C-471E-A624-DDF76E1897E3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DF1214F8-A7D8-44FF-956E-357139512A49}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6863DEB3-FC72-4C4B-AF64-2BF7E8A5B06C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E9D0937B-E1E2-4620-88C9-26CE0CE436AC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B6D5A2A9-8C77-4583-8184-7E4A5C60A9AB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8A3647E3-EFD0-4451-91A5-3667BD31EAE8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{368CD3A6-C810-47A7-962B-6005F0F6C894}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2AB6130B-842A-4B40-A22D-DFB252BF012B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AB834BAE-C23E-449C-AC5F-915942BCB4B0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9E811472-DCE1-4CD5-B7C2-54F40228B610}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F764DA65-0B7A-4E95-9811-E36C82D203BB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E2F572EC-EA5E-4828-A79C-53746AB3523C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{298D6D68-0112-40FC-87A8-63C9D30F92CF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9157958A-6635-4803-AFAE-49E57E03E3A8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{15722B22-1D01-4475-82BD-91CBFC680DEF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EF098992-7733-46E0-95A7-2352D49642E5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1E89B498-F720-4BAB-9867-699B2F3F0737}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C1F7A313-601D-4426-B4ED-488B0C97D1F5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B52CF37F-B645-492F-BB2A-3723CD887BD9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{849E5BE2-978D-4DD7-868B-3D4A0DEA4AE4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7315,7 +7315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1851CB60-DF7D-4A18-8508-A2ACF0CB70BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F8817F-713C-4753-A0A9-725E46A7CF63}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8514,18 +8514,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9D31BC0D-8E28-4D04-A219-2FBC5C3356DC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5A8C9E90-5999-4445-ADC2-DE1BD5E18D11}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7A79CE26-965B-4AB8-9EA8-CF432B4D13E7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1B4CA335-6078-4B97-9D2D-672033DC83AF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{53B4D513-22C9-4293-A647-7363B25EE559}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{55515EA6-4F13-47D8-9260-6E23614B9800}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F644F611-C973-4E7C-AD09-6E200C733539}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{037371EC-4705-4560-9F09-A4A6658BE10D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EB8C7991-9A38-4C91-B831-868ECC3B3E05}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{878EA319-FE06-49B5-8DBE-6151FCFE761A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{24D99495-94D3-4D33-A425-F73979145B65}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C2CB847A-D1A8-4DF6-AA79-4124F6794BD5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0731CC20-4F85-4D77-9197-BE6BEE734620}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{52B97E9E-F0D6-4CC8-A3AE-AE3C54B98EAF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0FD2565D-D657-4FB4-B061-10555EDBAE24}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9264E5A0-A1D8-4F98-94A3-F96D094F5B05}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BD7985DF-F925-4A2C-883D-7AE11890AF4D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{72C77CB7-CEB9-493D-969F-F817CBDD4E87}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AC946513-0242-4CBF-A385-6FFBD99BB81F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E3B51F64-C894-44BC-B9B0-58F0C1DFF8E1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9DF27BCD-5D86-49E6-B674-9C67F179C227}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0752C0D0-E858-4EDA-B746-03E3FC0C502D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2178CE33-3EA1-4207-859E-10F91ED38B0E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6C125C81-DBA3-467B-80E5-963FE957CA7B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8538,7 +8538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3487C07D-950F-4322-8DAF-7D7C178ECE1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CD7B23-7AF6-40C8-A109-9562EBABF789}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9737,18 +9737,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9E174AC4-C47F-4DAF-AA80-ED7A427AC723}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C9753123-2C28-429F-836A-708F79119A18}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2F384823-A889-44ED-AADE-B3D89E19DC0D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{435A0219-FAE2-43EF-82E1-371D70DF66C9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1540A793-7DCD-4507-B9A7-225B88C3E3FB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{75A34F00-80A1-46EA-8365-3039F980DE57}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8FB34035-FDDF-4B23-A243-9433AC34932D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{82F41E49-A6A7-421F-A1CE-3D517C109046}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AA045D42-0905-43B4-937D-E023B6607791}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E8929ED6-0329-4CF1-BC9E-CE25EE9B732C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E8ADC717-03BA-4116-8CB3-C378F350B7B5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6771DE7F-5409-4A31-B2B0-E2989A2998F3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DEBB2C62-F1E5-48E0-9B5F-31445CA0DD1F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{053DAB7C-94AD-493A-8CA4-C460408DC13D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{EDEA6196-FD54-41BF-8583-71161FDF0A63}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1D8F7B70-87AC-44CD-A723-AAAA3D913C8E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{86B131B0-015A-4865-846C-587C7B17500F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BDB78F68-BB1C-46F4-B434-7C867E6DA50A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3A8A5115-F918-46F4-919F-005EEDF68644}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5D20DCC2-6C5F-4A72-9438-DEE37876B2BF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{04680D8D-66D9-4D52-8184-E5413D5DD32D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DAF6F80F-5370-46D3-9429-0268326E2D8D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F7CBEC72-2C60-4101-93EF-4EAF11E25858}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{75D61788-6E3E-495F-8847-8421C10910C0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9761,7 +9761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C85030-1C17-4B42-AC74-74684E755FF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BE63DA-0163-4AA4-8765-B89B6C7BCB0F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10960,18 +10960,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B9FC69A1-DBCA-496C-88FA-BAC09C4EA55C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1566531A-AD56-45F2-BF01-FA40C7C2902F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{617BC75E-4EA9-47A7-A07D-F1F7A3770341}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5F89E5B8-02E3-4256-BCBA-21F283C80850}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D1CC8D84-0DCD-455E-979A-C86F126A6ED7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A46BAA93-2520-44BF-91A0-815191F42F17}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{ECFCA5C8-8B8B-4F47-9C48-3D527AEC8479}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9160A4CF-BE1F-4F2A-9D95-BCBDFF653BDC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{29B7FBFF-543E-4593-A4EE-4FEF03229501}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{14219389-7BDC-4D5A-B9D9-AC1AC3547643}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{687C3AAA-FF59-4783-9978-2FF4A62C6860}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C60ED916-5640-455D-B97E-408D50302A02}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C4CAB394-E97E-49DC-8DEF-39DC65B98809}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{33642187-0BA3-44EE-8C95-A80EEAB767D4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{132D3CB4-F2C6-4F65-BD80-20EEF57A7525}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4E72373C-1A63-4C62-98E8-2B7102642836}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DFF7451B-8D32-4BA1-A625-E4F0633F98A7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F090A883-4738-4AD3-8E89-99F0FA04235A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8CDB82F3-3FA3-42B5-9538-C8D9CEEE485C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D45DB4C0-540B-46A4-A3E9-70F82BB27680}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{063E02ED-8416-400D-BB6F-1C1EB4B79F32}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5AE571DF-0678-43C6-A657-1B67BE5362F5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4D6B1924-C33D-4968-AC8D-8BD8C7F40F43}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F1936CBA-4AA4-4682-B44F-FD4722A1189A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10984,7 +10984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9489F536-8FEF-47CD-AFCF-18E1B3FD325E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13D90F4-9CB6-4421-8405-C6B26075E4F5}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12183,18 +12183,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0C5C60E1-8392-45E8-B5D0-C8381E9E5C5F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{13CD0006-4C7A-42B4-90DD-CF62147C51D0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{40CEBCD6-B18F-4300-A327-C5162E2E508E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B8779673-9EA3-4E44-92A5-B1488F852B09}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2B3E76C9-51B5-4A3B-9A85-671B66ABEACD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3F5DBC23-59EF-49CC-9E54-87940AE4F225}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4C8989C1-0983-476C-BBFE-1EEFCA439685}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CA150672-69BE-43CE-ADE4-F13CCECD90CF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{87FE198C-0035-4E4F-897B-3EB9043FCE18}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6C9D28BE-8400-491F-BF20-5ED7DDC2BC1F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EBCDAA9C-B08A-4339-92E5-F8E1778ACE18}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1FA98274-707E-4006-9547-F98886DA3CE7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0ED2A122-69E2-4850-8B5F-AB48CDEDADD6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F77735B8-897A-4619-9BE6-A0E506C4EDBA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{788BCB3D-F8C9-4FBF-997D-CB18FAD2C543}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{451FF3B3-D81F-4E43-9650-1AC34B250062}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{ED69709E-7820-4AFD-A914-FBD48B8A23C1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A32835F9-7F7D-4651-8FFE-15EB3A9DAA10}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7358B5A9-21D5-4A8E-9767-0D6CEB257ABF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C409B1FD-2BD1-4D10-9759-BA7B7CFB798B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3EC28751-149F-4056-AF13-D01851A4E6E1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{18B12003-6D34-419F-B9EB-5D3FD0CE4464}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A6E1FB65-3C2D-4AF9-8D63-653085CCC2E6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{85F678F1-F3D9-429B-A93C-1139919B5786}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12207,7 +12207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EEEC8E-E189-4FFA-9DC9-23555B52242D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6259BB92-0D24-4C67-AE46-4F8BFCB3CC14}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13406,18 +13406,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{042B8D93-65B2-49F1-8EE9-81A9640501CF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6E6E0A26-0676-4059-869A-5353852048A5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{526A17B1-CE9E-4CCE-9A30-EF26768BE3BB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8F035070-2AA0-403C-9CAE-4FCEA8550C4B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7FC38DE7-FE41-4C18-8406-466BFB12EC0D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{94416CE5-C23E-4525-987F-810FEA0A4D0F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{33C36B75-3B11-44B5-941E-7C4E0B9BC40F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EEC94EB0-A07D-4F31-B0F2-A8C73D857F71}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2EFD5597-87F8-4C33-9346-93007391492E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B9B26739-B1BA-4B92-951C-5DFD638D25CD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D652FA5A-A832-4570-B37B-E7F270755618}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A17A283B-C0FE-4E55-B59D-AF201F1712EA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{72C84ECE-1459-43D7-A55C-A6EC1E720459}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6A888C96-CD0E-48C5-B81D-67F06DDE06A6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{27FFE619-0825-4A54-862C-E3FD5FA8693A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E444CC2B-7332-4BDF-9A36-CF1C76F162C0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5E2352B4-02A1-4F76-86BB-FFFDA191109E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7DFD74E7-8965-4B87-B18A-A594B92A8F5F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{75307AE8-BEAA-475E-A809-BC85A4C200FD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F01A0D0B-AD94-4D64-B709-F9A9C81E064A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EA7DB699-BC34-4991-BA47-7C87F39EFCF6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{228014BE-EE31-40BB-8C73-F53D22E3C90F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E5764C6F-4F87-4717-8AB2-701A958015A4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4BD04D66-7B57-4781-9EB2-FEF8DDDC44A7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13430,7 +13430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16636481-78FC-4AA0-AB99-42CFC8A2F62A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928A1288-35DB-4CF9-A210-D8BA8E43C3BC}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14629,18 +14629,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{46CC64DD-06B4-4C66-B8E2-ED9B721CE203}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E503050D-7DDD-4263-B30B-AD818B2AA614}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{03BE01D2-65C6-4F4E-BCA5-2330A7367108}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E02EAF06-023A-45F8-915A-65F6349FF8CC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A019C09B-5FE9-4C42-821C-D55249D22531}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{581BCED9-D242-4D0C-B038-33868ABFC7FF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{37A6DDDB-8E02-4162-8BC0-C4C51C6B8620}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2DF5F833-EE5E-405E-B871-75F4A2EA1C19}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{083FDD2E-7F35-4194-A574-972F2E86262B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{34BD57BF-CE0E-459C-BCE1-20BB32D7788A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EC344AAA-2CBD-4FE4-805F-32E3C72E66D6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A5DD00FD-D239-42FA-B982-04433CB2211D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3B1CA83A-BD13-49E0-8335-6873274BBD69}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2520C10D-8CD5-4768-BDA4-EA40F69C7B7F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{46E23C8B-4C3C-447C-99FB-7945EACCD5A3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7C12E550-7453-4152-8AA7-2B0B7CD06DDC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{01A2FC40-207E-4C97-AC57-2C4BD9758F4F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3FABB54B-28C8-4362-9675-12DECD990AC1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CB559019-CBC3-4BFA-BCAD-F32988C19BFD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{50789E18-A69D-44CF-BAEC-36D5CA8A79BE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{69353C8D-54B1-4EC1-B5EA-1D3B7393463F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{59DC8421-95C8-463C-9D04-78311758F941}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0F132383-19E1-493F-BEA9-349C08E861BD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7CFD988E-E3A2-439F-B9C7-52423C74C85B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14653,7 +14653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD44A55A-D8DE-4B9B-BB66-C3C9B724A84D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52CD44D-E917-4795-BC8F-6ED7A372F4AC}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15848,18 +15848,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{059A180E-2AFD-4B60-BE16-58BD8F182BE4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{ABBB2704-C601-411D-B760-65D223132E2F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3B8EF57F-EA58-4E0B-B412-E62C69F3C766}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{35B30B3C-01E4-4207-B2A0-A12F4DBCDCF7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2FB0FC74-8BFD-4E84-878A-5B83C1C02BE7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{AB13315F-0387-453B-A9FA-0C9034F4D859}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E7FB2AFA-E104-4556-B1C0-DC42CB6C7F6F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6BFCC776-64DE-444C-8496-59629ECE8607}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{696DFE50-AAE3-4720-972C-D8078CC8903C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7378D7A5-A5F5-4CCA-8936-CA0224B80A46}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{ADB3A491-9C43-48CE-8BB5-4711BD1C1A73}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A5DDF820-2D3A-48F7-8536-B813982E99BB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5990DBD4-C696-4DDD-B03C-0A892A44FD0A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{795A8363-754B-436C-B5CF-5D941250BC34}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{73ECAB96-B425-4482-889B-BB2A6E964F4A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{203E1E3E-AC43-443E-85CA-1377EAE4482E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5CC863A3-5B47-495F-B2A9-15713F13138A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{594BC321-5544-485C-A622-CD2FBB0735A2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{94ED092E-9F15-4223-863B-B7B1C39D1BEE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{728126FA-0C3F-4AB3-9BBC-E3F679927D2D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6572D44D-EA73-47B5-B83A-917DDF4BAD0C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{34DA3055-3144-437F-9E70-CF8968A8B327}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{85BBB183-37C8-4AA9-ACBA-DC16D7B08E80}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{37B0B449-438D-4B78-8593-3A6B787307A7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
